--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/BCB520/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/BCB521/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8BBAE1-A3B2-814E-8662-C67D721274DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F782B-1527-B94B-9891-CF6ADB6566DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{EBCA7641-3948-9148-9861-B8FB99728971}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>DATE</t>
   </si>
@@ -44,97 +44,70 @@
     <t>TOPIC</t>
   </si>
   <si>
-    <t>MARKS. Geometric elements to depict data</t>
-  </si>
-  <si>
-    <t>CHANNELS. Controlling the appearance of marks.</t>
-  </si>
-  <si>
-    <t>RULES OF THUMB.</t>
-  </si>
-  <si>
-    <t>TABULAR DATA I</t>
-  </si>
-  <si>
-    <t>TABULAR DATA II</t>
-  </si>
-  <si>
-    <t>SPATIAL DATA I: Geographic Maps</t>
-  </si>
-  <si>
-    <t>SPATIAL DATA II:  Spatial Fields</t>
-  </si>
-  <si>
-    <t>NETWORK DATA I</t>
-  </si>
-  <si>
-    <t>NETWORK DATA II</t>
-  </si>
-  <si>
-    <t>COLOR I</t>
-  </si>
-  <si>
-    <t>COLOR II</t>
-  </si>
-  <si>
-    <t>COLOR III</t>
-  </si>
-  <si>
-    <t>INTERACTIVITY</t>
-  </si>
-  <si>
-    <t>MULTIPLE VIEWS</t>
-  </si>
-  <si>
-    <t>AGGREGATION</t>
-  </si>
-  <si>
-    <t>FILTERING</t>
-  </si>
-  <si>
-    <t>EMBEDDING: Focus and Context</t>
-  </si>
-  <si>
     <t>DEAD WEEK</t>
   </si>
   <si>
-    <t>FINALS WEEK</t>
-  </si>
-  <si>
     <t>ACTIVITY</t>
   </si>
   <si>
     <t>RESOURCES</t>
   </si>
   <si>
-    <t>Introduction and Overview</t>
-  </si>
-  <si>
-    <t>Spring Recess</t>
-  </si>
-  <si>
-    <t>WHAT?  Abstraction of Data</t>
-  </si>
-  <si>
-    <t>WHY?  Task Abstraction</t>
-  </si>
-  <si>
-    <t>Barrie in Vermont</t>
-  </si>
-  <si>
-    <t>Midterm Presentations</t>
-  </si>
-  <si>
-    <t>Final Presentations</t>
-  </si>
-  <si>
-    <t>The Imporance of Visualization</t>
-  </si>
-  <si>
-    <t>[Literate Programming](posts/A1-Lit-Prog/index.qmd)</t>
-  </si>
-  <si>
-    <t>[Tutorial 1](posts/T1-Lit-Prog/index.qmd), [Tutorial 2](posts/T2-Anscombe/index.qmd)</t>
+    <t>NO CLASS THIS WEEK</t>
+  </si>
+  <si>
+    <t>Barrie moves his son to Syracuse</t>
+  </si>
+  <si>
+    <t>Whiskey?</t>
+  </si>
+  <si>
+    <t>Endless patience?</t>
+  </si>
+  <si>
+    <t>[Course Website](https://professorpolymorphic.github.io/BCB521/)</t>
+  </si>
+  <si>
+    <t>[Introduction](https://professorpolymorphic.github.io/BCB521/posts/L1-Intro/#/title-slide)</t>
+  </si>
+  <si>
+    <t>In Class Discussion</t>
+  </si>
+  <si>
+    <t>Work Day (R Studio and Quarto)</t>
+  </si>
+  <si>
+    <t>[Assignment 1](https://professorpolymorphic.github.io/BCB521/posts/A1-Lit-Prog/)</t>
+  </si>
+  <si>
+    <t>[Tutorial](https://professorpolymorphic.github.io/BCB521/posts/T1-Lit-Prog/)</t>
+  </si>
+  <si>
+    <t>BARRIE AT UCF</t>
+  </si>
+  <si>
+    <t>BARRIE IN ABQ</t>
+  </si>
+  <si>
+    <t>FALL RECESS</t>
+  </si>
+  <si>
+    <t>FINAL EXAMS</t>
+  </si>
+  <si>
+    <t>Your Data</t>
+  </si>
+  <si>
+    <t>Assigment 2</t>
+  </si>
+  <si>
+    <t>Work Day (Data cleaning and exploration)</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>Work Day (The Abyss of Github)</t>
   </si>
 </sst>
 </file>
@@ -310,13 +283,100 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C27260D-F952-634D-8074-0794BA3EFB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1993900" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC3480B-16B3-7440-BA66-20857E27299C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1993900" y="254000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +414,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,7 +673,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -633,65 +693,89 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" customHeight="1">
       <c r="A2" s="2">
-        <v>45302</v>
+        <v>45524</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="20">
       <c r="A3" s="2">
-        <v>45307</v>
+        <v>45526</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20">
       <c r="A4" s="2">
-        <v>45309</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+        <v>45531</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="20">
       <c r="A5" s="2">
         <f>A3+7</f>
-        <v>45314</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+        <v>45533</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="20">
       <c r="A6" s="2">
         <f>A4+7</f>
-        <v>45316</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>45538</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="20">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A28" si="0">A5+7</f>
-        <v>45321</v>
+        <v>45540</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -699,10 +783,10 @@
     <row r="8" spans="1:4" ht="20">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
-        <v>45323</v>
+        <v>45545</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -710,27 +794,27 @@
     <row r="9" spans="1:4" ht="20">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
-        <v>45328</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>45547</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="20">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
-        <v>45330</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>45552</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="20">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
-        <v>45335</v>
+        <v>45554</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -738,16 +822,18 @@
     <row r="12" spans="1:4" ht="20">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
-        <v>45337</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>45559</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="20">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
-        <v>45342</v>
+        <v>45561</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -755,10 +841,10 @@
     <row r="14" spans="1:4" ht="20">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
-        <v>45344</v>
+        <v>45566</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -766,178 +852,146 @@
     <row r="15" spans="1:4" ht="20">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
-        <v>45349</v>
+        <v>45568</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="20">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
-        <v>45351</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>45573</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="20">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
-        <v>45356</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>45575</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="20">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
-        <v>45358</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>45580</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="20">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
-        <v>45363</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>45582</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="20">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
-        <v>45365</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>45587</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="20">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
-        <v>45370</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>45589</v>
+      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="20">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
-        <v>45372</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>45594</v>
+      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="20">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
-        <v>45377</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>45596</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="20">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
-        <v>45379</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>45601</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="20">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
-        <v>45384</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>45603</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="20">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
-        <v>45386</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>45608</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="20">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
-        <v>45391</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>45610</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="20">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
-        <v>45393</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>45615</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="20">
       <c r="A29" s="2">
         <f>A27+7</f>
-        <v>45398</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>45617</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="20">
       <c r="A30" s="2">
         <f>A28+7</f>
-        <v>45400</v>
+        <v>45622</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -945,7 +999,7 @@
     <row r="31" spans="1:4" ht="20">
       <c r="A31" s="2">
         <f t="shared" ref="A31:A35" si="1">A29+7</f>
-        <v>45405</v>
+        <v>45624</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
@@ -956,10 +1010,10 @@
     <row r="32" spans="1:4" ht="20">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
-        <v>45407</v>
+        <v>45629</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -967,36 +1021,32 @@
     <row r="33" spans="1:4" ht="20">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
-        <v>45412</v>
+        <v>45631</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="20">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
-        <v>45414</v>
+        <v>45636</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="20">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
-        <v>45419</v>
+        <v>45638</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20">
